--- a/spreadsheets/Kha'Zix.xlsx
+++ b/spreadsheets/Kha'Zix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2DB1A3-CB1C-4419-9F51-9AECB28671C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DD3C35-F90A-40D6-9FAA-5635D6F704CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="34395" yWindow="3120" windowWidth="21525" windowHeight="11820" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>id</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>discord</t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
 </sst>
 </file>
@@ -938,6 +941,9 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -980,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1637B386-EF92-4D05-9F9D-7F0D57FE5347}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
